--- a/Precedence.xlsx
+++ b/Precedence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Strnk\Documents\GitHub\TeamProject2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Strnk\Documents\GitHub\CompilerProject2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,25 +162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,82 +390,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -479,6 +404,60 @@
       <alignment textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -764,7 +743,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,732 +753,732 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="12" t="s">
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="16" t="s">
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="16" t="s">
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="16" t="s">
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="16" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="16" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="16" t="s">
+      <c r="C10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="16" t="s">
+      <c r="C11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="16" t="s">
+      <c r="C12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="16" t="s">
+      <c r="C13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="19" t="s">
+      <c r="C14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="20"/>
+      <c r="N14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="16" t="s">
+      <c r="C15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="16" t="s">
+      <c r="C16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="21"/>
+      <c r="C17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1536,7 +1515,7 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1556,13 +1535,13 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="29" t="s">
+      <c r="C21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
